--- a/02-Avancado1-Funcoes/06-FuncoesProcura/Aula-27-ExcelAvancado1-NotasMatematica-FuncoesProcura.xlsx
+++ b/02-Avancado1-Funcoes/06-FuncoesProcura/Aula-27-ExcelAvancado1-NotasMatematica-FuncoesProcura.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\07-FuncoesProcura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Documents\msexcel\02-Avancado1-Funcoes\06-FuncoesProcura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48C8D3A-BB1B-4BB8-A874-2EA7A399F806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA82AF97-5A01-4665-A8B1-F69855117341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notas Matemática" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <author>tc={E3A5D9D9-7A33-4556-A5D6-42F44895C08A}</author>
   </authors>
   <commentList>
-    <comment ref="K11" authorId="0" shapeId="0" xr:uid="{5EDD6EFF-B93A-4606-AE72-7AC85C5F1D61}">
+    <comment ref="K14" authorId="0" shapeId="0" xr:uid="{5EDD6EFF-B93A-4606-AE72-7AC85C5F1D61}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +55,7 @@
     Utilizar a Função =HOJE()</t>
       </text>
     </comment>
-    <comment ref="E12" authorId="1" shapeId="0" xr:uid="{0F8D3530-99BB-4AB6-A99C-4E22E5FC6C5A}">
+    <comment ref="E15" authorId="1" shapeId="0" xr:uid="{0F8D3530-99BB-4AB6-A99C-4E22E5FC6C5A}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +63,7 @@
     Utilizar a Função =DATADIF()</t>
       </text>
     </comment>
-    <comment ref="J12" authorId="2" shapeId="0" xr:uid="{9F3FB015-BE9E-4E2F-A5CF-BFB5BE248DA0}">
+    <comment ref="J15" authorId="2" shapeId="0" xr:uid="{9F3FB015-BE9E-4E2F-A5CF-BFB5BE248DA0}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +71,7 @@
     Utilizar a Função =MÉDIA()</t>
       </text>
     </comment>
-    <comment ref="K12" authorId="3" shapeId="0" xr:uid="{9B9450F9-A4A1-4802-A19A-703787059B6E}">
+    <comment ref="K15" authorId="3" shapeId="0" xr:uid="{9B9450F9-A4A1-4802-A19A-703787059B6E}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -79,15 +79,15 @@
     Utilizar a Função =PROCV()</t>
       </text>
     </comment>
-    <comment ref="L12" authorId="4" shapeId="0" xr:uid="{259BA891-C37B-444F-A9FA-87F6240B3E57}">
+    <comment ref="L15" authorId="4" shapeId="0" xr:uid="{259BA891-C37B-444F-A9FA-87F6240B3E57}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
-    Utilizar a Função =PROCV()</t>
+    Utilizar as Funções =SES() e =PROCV()</t>
       </text>
     </comment>
-    <comment ref="B21" authorId="5" shapeId="0" xr:uid="{02FE1CC3-8235-4EDF-85D2-1B8785FBD67D}">
+    <comment ref="B24" authorId="5" shapeId="0" xr:uid="{02FE1CC3-8235-4EDF-85D2-1B8785FBD67D}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -95,7 +95,7 @@
     Utilizar a Função =MÁXIMO()</t>
       </text>
     </comment>
-    <comment ref="I21" authorId="6" shapeId="0" xr:uid="{45D62B6D-D74C-401F-B207-4771DB707A67}">
+    <comment ref="I24" authorId="6" shapeId="0" xr:uid="{45D62B6D-D74C-401F-B207-4771DB707A67}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -103,7 +103,7 @@
     Utilizar a Função =MAIOR()</t>
       </text>
     </comment>
-    <comment ref="J21" authorId="7" shapeId="0" xr:uid="{C27748AC-5D77-403B-B8BB-8BB7905BF5AA}">
+    <comment ref="J24" authorId="7" shapeId="0" xr:uid="{C27748AC-5D77-403B-B8BB-8BB7905BF5AA}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -111,7 +111,7 @@
     Utilizar a Função =CORRESP()</t>
       </text>
     </comment>
-    <comment ref="K21" authorId="8" shapeId="0" xr:uid="{BD27E254-B61C-4A04-8C5D-95DBC097E65A}">
+    <comment ref="K24" authorId="8" shapeId="0" xr:uid="{BD27E254-B61C-4A04-8C5D-95DBC097E65A}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -119,7 +119,7 @@
     Utilizar a Função =ÍNDICE()</t>
       </text>
     </comment>
-    <comment ref="B22" authorId="9" shapeId="0" xr:uid="{11E72D65-CD16-42CF-AAB6-27B797D4CED3}">
+    <comment ref="B25" authorId="9" shapeId="0" xr:uid="{11E72D65-CD16-42CF-AAB6-27B797D4CED3}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -127,7 +127,7 @@
     Utilizar a Função =MÍNIMO()</t>
       </text>
     </comment>
-    <comment ref="B23" authorId="10" shapeId="0" xr:uid="{86AA877F-6BE0-4EA6-A249-DCFC3D398294}">
+    <comment ref="B26" authorId="10" shapeId="0" xr:uid="{86AA877F-6BE0-4EA6-A249-DCFC3D398294}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -135,7 +135,7 @@
     Utilizar a Função =MÉDIA()</t>
       </text>
     </comment>
-    <comment ref="B24" authorId="11" shapeId="0" xr:uid="{3B275527-C396-457A-9A23-5F8BB6B4CBD7}">
+    <comment ref="B27" authorId="11" shapeId="0" xr:uid="{3B275527-C396-457A-9A23-5F8BB6B4CBD7}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -143,7 +143,7 @@
     Utilizar a Função =CONT.VALORES()</t>
       </text>
     </comment>
-    <comment ref="E24" authorId="12" shapeId="0" xr:uid="{593E3805-5DE2-4961-ACBE-B82D0E8965D9}">
+    <comment ref="E27" authorId="12" shapeId="0" xr:uid="{593E3805-5DE2-4961-ACBE-B82D0E8965D9}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -151,7 +151,7 @@
     Utilizar a Função =MÁXIMO()</t>
       </text>
     </comment>
-    <comment ref="B25" authorId="13" shapeId="0" xr:uid="{4584E83F-D434-40EA-B024-BD66D515974E}">
+    <comment ref="B28" authorId="13" shapeId="0" xr:uid="{4584E83F-D434-40EA-B024-BD66D515974E}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -159,7 +159,7 @@
     Utilizar a Função =CONT.SE()</t>
       </text>
     </comment>
-    <comment ref="B26" authorId="14" shapeId="0" xr:uid="{AAF4AF3B-6522-4404-8BC9-A3279BD06A9C}">
+    <comment ref="B29" authorId="14" shapeId="0" xr:uid="{AAF4AF3B-6522-4404-8BC9-A3279BD06A9C}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -167,7 +167,7 @@
     Utilizar a Função =CONT.SE()</t>
       </text>
     </comment>
-    <comment ref="I26" authorId="15" shapeId="0" xr:uid="{6E53C866-8305-4646-A0F4-0E83E36C0EA9}">
+    <comment ref="I29" authorId="15" shapeId="0" xr:uid="{6E53C866-8305-4646-A0F4-0E83E36C0EA9}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -175,7 +175,7 @@
     Utilizar a Função =MENOR()</t>
       </text>
     </comment>
-    <comment ref="J26" authorId="16" shapeId="0" xr:uid="{935D4D4B-5CCB-478D-B5B6-BECBCD4C950B}">
+    <comment ref="J29" authorId="16" shapeId="0" xr:uid="{935D4D4B-5CCB-478D-B5B6-BECBCD4C950B}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -183,7 +183,7 @@
     Utilizar a Função =CORRESP()</t>
       </text>
     </comment>
-    <comment ref="K26" authorId="17" shapeId="0" xr:uid="{4B0C8920-F0D5-475D-8C01-7B45D17094D4}">
+    <comment ref="K29" authorId="17" shapeId="0" xr:uid="{4B0C8920-F0D5-475D-8C01-7B45D17094D4}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -191,7 +191,7 @@
     Utilizar a Função =ÍNDICE()</t>
       </text>
     </comment>
-    <comment ref="B27" authorId="18" shapeId="0" xr:uid="{FD6BC476-B6FE-44D1-A85D-12DCFB3E029A}">
+    <comment ref="B30" authorId="18" shapeId="0" xr:uid="{FD6BC476-B6FE-44D1-A85D-12DCFB3E029A}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -199,7 +199,7 @@
     Utilizar a Função =MÉDIA()</t>
       </text>
     </comment>
-    <comment ref="E27" authorId="19" shapeId="0" xr:uid="{1D7ABD3A-446B-4177-A3DD-DBB03C5C9BB9}">
+    <comment ref="E30" authorId="19" shapeId="0" xr:uid="{1D7ABD3A-446B-4177-A3DD-DBB03C5C9BB9}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -207,7 +207,7 @@
     Utilizar a Função =MÍNIMO()</t>
       </text>
     </comment>
-    <comment ref="B28" authorId="20" shapeId="0" xr:uid="{8D9E9D0E-C3BA-40EE-9B3A-F2F968658C3E}">
+    <comment ref="B31" authorId="20" shapeId="0" xr:uid="{8D9E9D0E-C3BA-40EE-9B3A-F2F968658C3E}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -215,7 +215,7 @@
     Utilizar a Função =MÉDIASE()</t>
       </text>
     </comment>
-    <comment ref="B29" authorId="21" shapeId="0" xr:uid="{E3A5D9D9-7A33-4556-A5D6-42F44895C08A}">
+    <comment ref="B32" authorId="21" shapeId="0" xr:uid="{E3A5D9D9-7A33-4556-A5D6-42F44895C08A}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>Data.:</t>
   </si>
@@ -285,9 +285,6 @@
   </si>
   <si>
     <t>Robson Vaamonde</t>
-  </si>
-  <si>
-    <t>O aluno e considerado aprovado somente quando consultar as configurações de Conceito e Resultado, utilizando os valores determinados para aprovação, exame e reprovação.</t>
   </si>
   <si>
     <t>Rank de Maiores Notas por Aluno</t>
@@ -519,6 +516,18 @@
       <t>https://www.youtube.com/boraparapratica</t>
     </r>
   </si>
+  <si>
+    <t>Função SES</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/pt-br/office/fun%C3%A7%C3%A3o-ses-36329a26-37b2-467c-972b-4a39bd951d45</t>
+  </si>
+  <si>
+    <t>O aluno é considerado aprovado somente quando consultar as configurações de Conceito e Resultado, utilizando os valores determinados para Aprovação, Exame e Reprovação.</t>
+  </si>
+  <si>
+    <t>LÓGICA: SES OU Média Final &lt;0 OU Média Final &gt;10 "Média Inválida" SENÃO Média Final = "" (VÁZIO) "Sem Média" SENÃO PROCV Média Final; Resultado; 2</t>
+  </si>
 </sst>
 </file>
 
@@ -527,7 +536,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="63"/>
@@ -579,12 +588,6 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
@@ -700,11 +703,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,42 +745,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -960,8 +966,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>371108</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>18026</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>122801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1443,70 +1449,70 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K11" dT="2025-01-15T23:08:32.77" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{5EDD6EFF-B93A-4606-AE72-7AC85C5F1D61}">
+  <threadedComment ref="K14" dT="2025-01-15T23:08:32.77" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{5EDD6EFF-B93A-4606-AE72-7AC85C5F1D61}">
     <text>Utilizar a Função =HOJE()</text>
   </threadedComment>
-  <threadedComment ref="E12" dT="2025-01-15T23:08:46.87" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{0F8D3530-99BB-4AB6-A99C-4E22E5FC6C5A}">
+  <threadedComment ref="E15" dT="2025-01-15T23:08:46.87" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{0F8D3530-99BB-4AB6-A99C-4E22E5FC6C5A}">
     <text>Utilizar a Função =DATADIF()</text>
   </threadedComment>
-  <threadedComment ref="J12" dT="2025-01-15T23:08:58.09" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{9F3FB015-BE9E-4E2F-A5CF-BFB5BE248DA0}">
+  <threadedComment ref="J15" dT="2025-01-15T23:08:58.09" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{9F3FB015-BE9E-4E2F-A5CF-BFB5BE248DA0}">
     <text>Utilizar a Função =MÉDIA()</text>
   </threadedComment>
-  <threadedComment ref="K12" dT="2025-01-15T23:09:23.09" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{9B9450F9-A4A1-4802-A19A-703787059B6E}">
+  <threadedComment ref="K15" dT="2025-01-15T23:09:23.09" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{9B9450F9-A4A1-4802-A19A-703787059B6E}">
     <text>Utilizar a Função =PROCV()</text>
   </threadedComment>
-  <threadedComment ref="L12" dT="2025-01-15T23:09:36.13" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{259BA891-C37B-444F-A9FA-87F6240B3E57}">
-    <text>Utilizar a Função =PROCV()</text>
+  <threadedComment ref="L15" dT="2025-01-15T23:09:36.13" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{259BA891-C37B-444F-A9FA-87F6240B3E57}">
+    <text>Utilizar as Funções =SES() e =PROCV()</text>
   </threadedComment>
-  <threadedComment ref="B21" dT="2025-01-15T23:10:51.66" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{02FE1CC3-8235-4EDF-85D2-1B8785FBD67D}">
+  <threadedComment ref="B24" dT="2025-01-15T23:10:51.66" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{02FE1CC3-8235-4EDF-85D2-1B8785FBD67D}">
     <text>Utilizar a Função =MÁXIMO()</text>
   </threadedComment>
-  <threadedComment ref="I21" dT="2025-01-15T23:13:14.41" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{45D62B6D-D74C-401F-B207-4771DB707A67}">
+  <threadedComment ref="I24" dT="2025-01-15T23:13:14.41" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{45D62B6D-D74C-401F-B207-4771DB707A67}">
     <text>Utilizar a Função =MAIOR()</text>
   </threadedComment>
-  <threadedComment ref="J21" dT="2025-01-15T23:13:32.60" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{C27748AC-5D77-403B-B8BB-8BB7905BF5AA}">
+  <threadedComment ref="J24" dT="2025-01-15T23:13:32.60" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{C27748AC-5D77-403B-B8BB-8BB7905BF5AA}">
     <text>Utilizar a Função =CORRESP()</text>
   </threadedComment>
-  <threadedComment ref="K21" dT="2025-01-15T23:13:48.80" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{BD27E254-B61C-4A04-8C5D-95DBC097E65A}">
+  <threadedComment ref="K24" dT="2025-01-15T23:13:48.80" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{BD27E254-B61C-4A04-8C5D-95DBC097E65A}">
     <text>Utilizar a Função =ÍNDICE()</text>
   </threadedComment>
-  <threadedComment ref="B22" dT="2025-01-15T23:11:00.98" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{11E72D65-CD16-42CF-AAB6-27B797D4CED3}">
+  <threadedComment ref="B25" dT="2025-01-15T23:11:00.98" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{11E72D65-CD16-42CF-AAB6-27B797D4CED3}">
     <text>Utilizar a Função =MÍNIMO()</text>
   </threadedComment>
-  <threadedComment ref="B23" dT="2025-01-15T23:11:09.61" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{86AA877F-6BE0-4EA6-A249-DCFC3D398294}">
+  <threadedComment ref="B26" dT="2025-01-15T23:11:09.61" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{86AA877F-6BE0-4EA6-A249-DCFC3D398294}">
     <text>Utilizar a Função =MÉDIA()</text>
   </threadedComment>
-  <threadedComment ref="B24" dT="2025-01-15T23:11:21.79" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{3B275527-C396-457A-9A23-5F8BB6B4CBD7}">
+  <threadedComment ref="B27" dT="2025-01-15T23:11:21.79" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{3B275527-C396-457A-9A23-5F8BB6B4CBD7}">
     <text>Utilizar a Função =CONT.VALORES()</text>
   </threadedComment>
-  <threadedComment ref="E24" dT="2025-01-15T23:12:33.49" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{593E3805-5DE2-4961-ACBE-B82D0E8965D9}">
+  <threadedComment ref="E27" dT="2025-01-15T23:12:33.49" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{593E3805-5DE2-4961-ACBE-B82D0E8965D9}">
     <text>Utilizar a Função =MÁXIMO()</text>
   </threadedComment>
-  <threadedComment ref="B25" dT="2025-01-15T23:11:34.20" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{4584E83F-D434-40EA-B024-BD66D515974E}">
+  <threadedComment ref="B28" dT="2025-01-15T23:11:34.20" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{4584E83F-D434-40EA-B024-BD66D515974E}">
     <text>Utilizar a Função =CONT.SE()</text>
   </threadedComment>
-  <threadedComment ref="B26" dT="2025-01-15T23:11:48.90" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{AAF4AF3B-6522-4404-8BC9-A3279BD06A9C}">
+  <threadedComment ref="B29" dT="2025-01-15T23:11:48.90" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{AAF4AF3B-6522-4404-8BC9-A3279BD06A9C}">
     <text>Utilizar a Função =CONT.SE()</text>
   </threadedComment>
-  <threadedComment ref="I26" dT="2025-01-15T23:13:14.41" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{6E53C866-8305-4646-A0F4-0E83E36C0EA9}">
+  <threadedComment ref="I29" dT="2025-01-15T23:13:14.41" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{6E53C866-8305-4646-A0F4-0E83E36C0EA9}">
     <text>Utilizar a Função =MENOR()</text>
   </threadedComment>
-  <threadedComment ref="J26" dT="2025-01-15T23:13:32.60" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{935D4D4B-5CCB-478D-B5B6-BECBCD4C950B}">
+  <threadedComment ref="J29" dT="2025-01-15T23:13:32.60" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{935D4D4B-5CCB-478D-B5B6-BECBCD4C950B}">
     <text>Utilizar a Função =CORRESP()</text>
   </threadedComment>
-  <threadedComment ref="K26" dT="2025-01-15T23:13:48.80" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{4B0C8920-F0D5-475D-8C01-7B45D17094D4}">
+  <threadedComment ref="K29" dT="2025-01-15T23:13:48.80" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{4B0C8920-F0D5-475D-8C01-7B45D17094D4}">
     <text>Utilizar a Função =ÍNDICE()</text>
   </threadedComment>
-  <threadedComment ref="B27" dT="2025-01-15T23:12:00.61" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{FD6BC476-B6FE-44D1-A85D-12DCFB3E029A}">
+  <threadedComment ref="B30" dT="2025-01-15T23:12:00.61" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{FD6BC476-B6FE-44D1-A85D-12DCFB3E029A}">
     <text>Utilizar a Função =MÉDIA()</text>
   </threadedComment>
-  <threadedComment ref="E27" dT="2025-01-15T23:12:43.93" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{1D7ABD3A-446B-4177-A3DD-DBB03C5C9BB9}">
+  <threadedComment ref="E30" dT="2025-01-15T23:12:43.93" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{1D7ABD3A-446B-4177-A3DD-DBB03C5C9BB9}">
     <text>Utilizar a Função =MÍNIMO()</text>
   </threadedComment>
-  <threadedComment ref="B28" dT="2025-01-15T23:12:13.21" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{8D9E9D0E-C3BA-40EE-9B3A-F2F968658C3E}">
+  <threadedComment ref="B31" dT="2025-01-15T23:12:13.21" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{8D9E9D0E-C3BA-40EE-9B3A-F2F968658C3E}">
     <text>Utilizar a Função =MÉDIASE()</text>
   </threadedComment>
-  <threadedComment ref="B29" dT="2025-01-15T23:12:24.26" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{E3A5D9D9-7A33-4556-A5D6-42F44895C08A}">
+  <threadedComment ref="B32" dT="2025-01-15T23:12:24.26" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{E3A5D9D9-7A33-4556-A5D6-42F44895C08A}">
     <text>Utilizar a Função =MÉDIASE()</text>
   </threadedComment>
 </ThreadedComments>
@@ -1514,9 +1520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
@@ -1535,261 +1543,221 @@
     <col min="21" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="24" customFormat="1" ht="14.25">
-      <c r="A1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B2" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-    </row>
-    <row r="3" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-    </row>
-    <row r="4" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-    </row>
-    <row r="5" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-    </row>
-    <row r="6" spans="1:12" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+    <row r="1" spans="1:12" s="18" customFormat="1" ht="14.25">
+      <c r="A1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" s="18" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+    </row>
+    <row r="3" spans="1:12" s="18" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:12" s="18" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+    </row>
+    <row r="5" spans="1:12" s="18" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+    </row>
+    <row r="6" spans="1:12" s="18" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12"/>
     <row r="8" spans="1:12">
-      <c r="B8" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
+      <c r="B8" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-    </row>
-    <row r="10" spans="1:12"/>
-    <row r="11" spans="1:12">
-      <c r="B11" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="13" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.25">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" customHeight="1">
+      <c r="B11" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" customHeight="1">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+    </row>
+    <row r="13" spans="1:12"/>
+    <row r="14" spans="1:12">
+      <c r="B14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12" s="1" t="s">
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" s="7">
-        <v>29348</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="2">
-        <v>7</v>
-      </c>
-      <c r="G13" s="2">
-        <v>8</v>
-      </c>
-      <c r="H13" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="I13" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="15"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="7">
-        <v>27677</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="2">
-        <v>6</v>
-      </c>
-      <c r="G14" s="2">
-        <v>8</v>
-      </c>
-      <c r="H14" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="I14" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="7">
-        <v>34731</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="G15" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="7">
-        <v>23957</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>17</v>
+        <v>29348</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G16" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H16" s="2">
         <v>4.5</v>
       </c>
       <c r="I16" s="2">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -1797,26 +1765,26 @@
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="7">
-        <v>36774</v>
+        <v>27677</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G17" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H17" s="2">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
+        <v>9.5</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -1824,311 +1792,406 @@
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="7">
-        <v>29038</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>18</v>
+        <v>34731</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="2">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="G18" s="2">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="H18" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="2:12"/>
+    <row r="19" spans="2:12">
+      <c r="B19" s="7">
+        <v>23957</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="2">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3</v>
+      </c>
+      <c r="H19" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="15"/>
+    </row>
     <row r="20" spans="2:12">
-      <c r="D20" s="1" t="s">
+      <c r="B20" s="7">
+        <v>36774</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="2">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2">
+        <v>10</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="7">
+        <v>29038</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="2">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2">
+        <v>10</v>
+      </c>
+      <c r="I21" s="2">
+        <v>10</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="2:12"/>
+    <row r="23" spans="2:12">
+      <c r="D23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H23" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="17" t="s">
+      <c r="C24" s="24"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="12" t="s">
-        <v>29</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="18"/>
+      <c r="B25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="24"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="18"/>
+      <c r="B26" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="24"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="18"/>
+      <c r="B27" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="24"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="E27" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="18"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="2:12" ht="26.25">
+      <c r="B28" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="24"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="18"/>
+      <c r="B29" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="24"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="12" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-    </row>
-    <row r="30" spans="2:12"/>
-    <row r="31" spans="2:12" ht="21">
-      <c r="B31" s="28" t="s">
-        <v>49</v>
-      </c>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="2:12" ht="26.25">
+      <c r="B31" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="29" t="s">
-        <v>50</v>
-      </c>
+      <c r="B32" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
     </row>
     <row r="33" spans="2:2"/>
     <row r="34" spans="2:2" ht="21">
-      <c r="B34" s="28" t="s">
-        <v>51</v>
+      <c r="B34" s="19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="29" t="s">
-        <v>52</v>
+      <c r="B35" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:2"/>
     <row r="37" spans="2:2" ht="21">
-      <c r="B37" s="28" t="s">
-        <v>53</v>
+      <c r="B37" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="29" t="s">
-        <v>54</v>
+      <c r="B38" s="20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="2:2"/>
     <row r="40" spans="2:2" ht="21">
-      <c r="B40" s="28" t="s">
-        <v>55</v>
+      <c r="B40" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="29" t="s">
-        <v>56</v>
+      <c r="B41" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:2"/>
     <row r="43" spans="2:2" ht="21">
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2"/>
+    <row r="46" spans="2:2" ht="21">
+      <c r="B46" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2"/>
+    <row r="48" spans="2:2">
+      <c r="B48" s="20"/>
+    </row>
+    <row r="49" spans="2:2" ht="21" hidden="1">
+      <c r="B49" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" hidden="1">
+      <c r="B50" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B2:L6"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="K22:L22"/>
+  <mergeCells count="27">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="E31:G32"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="H28:L28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="E25:G26"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="K30:L30"/>
     <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B11:L12"/>
+    <mergeCell ref="B2:L6"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="K25:L25"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B32" r:id="rId1" xr:uid="{F5BAC934-6ED9-4BC5-8BF1-8A67EA558051}"/>
-    <hyperlink ref="B35" r:id="rId2" xr:uid="{6F82D4A5-2B3A-49AC-AF4E-18903754D6DC}"/>
-    <hyperlink ref="B38" r:id="rId3" xr:uid="{0B71360B-298E-4AC6-B767-9ECACDA25381}"/>
-    <hyperlink ref="B41" r:id="rId4" xr:uid="{80AB47F5-64F7-4644-AD1F-5AD50F957BAD}"/>
-    <hyperlink ref="B44" r:id="rId5" xr:uid="{31BA3ABB-8356-45B3-92C9-886455A35C1D}"/>
+    <hyperlink ref="B35" r:id="rId1" xr:uid="{F5BAC934-6ED9-4BC5-8BF1-8A67EA558051}"/>
+    <hyperlink ref="B38" r:id="rId2" xr:uid="{6F82D4A5-2B3A-49AC-AF4E-18903754D6DC}"/>
+    <hyperlink ref="B41" r:id="rId3" xr:uid="{0B71360B-298E-4AC6-B767-9ECACDA25381}"/>
+    <hyperlink ref="B44" r:id="rId4" xr:uid="{80AB47F5-64F7-4644-AD1F-5AD50F957BAD}"/>
+    <hyperlink ref="B47" r:id="rId5" xr:uid="{31BA3ABB-8356-45B3-92C9-886455A35C1D}"/>
+    <hyperlink ref="B50" r:id="rId6" xr:uid="{3CD91DC4-4C0D-4EF5-B898-47A8F9411A6C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <drawing r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <drawing r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
@@ -2142,40 +2205,40 @@
     <col min="15" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="24" customFormat="1" ht="14.25">
-      <c r="A1" s="23"/>
-    </row>
-    <row r="2" spans="1:6" s="24" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:6" s="18" customFormat="1" ht="14.25">
+      <c r="A1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="B2" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
       <c r="F2" s="30"/>
     </row>
-    <row r="3" spans="1:6" s="24" customFormat="1" ht="14.25" customHeight="1">
+    <row r="3" spans="1:6" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
     </row>
-    <row r="4" spans="1:6" s="24" customFormat="1" ht="14.25" customHeight="1">
+    <row r="4" spans="1:6" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
     </row>
-    <row r="5" spans="1:6" s="24" customFormat="1" ht="14.25" customHeight="1">
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
     </row>
-    <row r="6" spans="1:6" s="24" customFormat="1" ht="14.25" customHeight="1">
+    <row r="6" spans="1:6" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -2185,13 +2248,13 @@
     <row r="7" spans="1:6"/>
     <row r="8" spans="1:6">
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -2202,13 +2265,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2216,13 +2279,13 @@
         <v>2.5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2">
         <v>5</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2230,13 +2293,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2">
         <v>7.5</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2244,7 +2307,7 @@
         <v>7.5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="6"/>
     </row>
@@ -2253,7 +2316,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6"/>

--- a/02-Avancado1-Funcoes/06-FuncoesProcura/Aula-27-ExcelAvancado1-NotasMatematica-FuncoesProcura.xlsx
+++ b/02-Avancado1-Funcoes/06-FuncoesProcura/Aula-27-ExcelAvancado1-NotasMatematica-FuncoesProcura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Documents\msexcel\02-Avancado1-Funcoes\06-FuncoesProcura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA82AF97-5A01-4665-A8B1-F69855117341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DECD6C-04C8-45A5-9D6E-CCA6CB6D12BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
-    Utilizar as Funções =SES() e =PROCV()</t>
+    Utilizar as Funções =SES(), =OU() e =PROCV()</t>
       </text>
     </comment>
     <comment ref="B24" authorId="5" shapeId="0" xr:uid="{02FE1CC3-8235-4EDF-85D2-1B8785FBD67D}">
@@ -526,7 +526,178 @@
     <t>O aluno é considerado aprovado somente quando consultar as configurações de Conceito e Resultado, utilizando os valores determinados para Aprovação, Exame e Reprovação.</t>
   </si>
   <si>
-    <t>LÓGICA: SES OU Média Final &lt;0 OU Média Final &gt;10 "Média Inválida" SENÃO Média Final = "" (VÁZIO) "Sem Média" SENÃO PROCV Média Final; Resultado; 2</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>LÓGICA RESULTADO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>OU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Média Final &lt;0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>OU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Média Final &gt;10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Média Inválida" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SENÃO SE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Média Final = "" (VÁZIO)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> "Sem Média" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SENÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="63"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PROCV Média Final; Resultado; 2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -536,7 +707,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color indexed="63"/>
@@ -621,6 +792,31 @@
       <sz val="8"/>
       <color rgb="FF0070C0"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -753,11 +949,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -765,8 +958,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -774,16 +979,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1462,7 +1658,7 @@
     <text>Utilizar a Função =PROCV()</text>
   </threadedComment>
   <threadedComment ref="L15" dT="2025-01-15T23:09:36.13" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{259BA891-C37B-444F-A9FA-87F6240B3E57}">
-    <text>Utilizar as Funções =SES() e =PROCV()</text>
+    <text>Utilizar as Funções =SES(), =OU() e =PROCV()</text>
   </threadedComment>
   <threadedComment ref="B24" dT="2025-01-15T23:10:51.66" personId="{948300AC-82CE-4552-83C7-6D8D124A5C23}" id="{02FE1CC3-8235-4EDF-85D2-1B8785FBD67D}">
     <text>Utilizar a Função =MÁXIMO()</text>
@@ -1522,9 +1718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:L12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
@@ -1547,155 +1741,155 @@
       <c r="A1" s="17"/>
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" s="18" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" s="18" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" s="18" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:12"/>
     <row r="8" spans="1:12">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12" ht="17.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12" ht="17.25" customHeight="1">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:12"/>
     <row r="14" spans="1:12">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="13" t="s">
         <v>0</v>
       </c>
@@ -1912,19 +2106,19 @@
       <c r="G23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -1934,14 +2128,14 @@
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="24"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -1951,14 +2145,14 @@
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="24"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -1968,114 +2162,114 @@
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="24"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-    </row>
-    <row r="28" spans="2:12" ht="26.25">
-      <c r="B28" s="23" t="s">
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="24"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="25" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="24"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="24"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="12" t="s">
         <v>23</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-    </row>
-    <row r="31" spans="2:12" ht="26.25">
-      <c r="B31" s="23" t="s">
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="24"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="12" t="s">
         <v>25</v>
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="24"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
     </row>
     <row r="33" spans="2:2"/>
     <row r="34" spans="2:2" ht="21">
@@ -2147,6 +2341,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B2:L6"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="K25:L25"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="B32:C32"/>
@@ -2163,17 +2368,6 @@
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B11:L12"/>
-    <mergeCell ref="B2:L6"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="K25:L25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B35" r:id="rId1" xr:uid="{F5BAC934-6ED9-4BC5-8BF1-8A67EA558051}"/>
@@ -2209,41 +2403,41 @@
       <c r="A1" s="17"/>
     </row>
     <row r="2" spans="1:6" s="18" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" s="18" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" s="18" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" s="18" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6" s="18" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6"/>
     <row r="8" spans="1:6">
